--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="750">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="750">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31374,115 +31374,115 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15">
@@ -34274,115 +34274,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="40">
@@ -34390,115 +34390,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -34506,115 +34506,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>107</v>
+        <v>389</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>107</v>
+        <v>448</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>107</v>
+        <v>488</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>107</v>
+        <v>507</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>107</v>
+        <v>526</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>107</v>
+        <v>545</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>107</v>
+        <v>555</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>107</v>
+        <v>566</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>107</v>
+        <v>585</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>107</v>
+        <v>604</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>107</v>
+        <v>623</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>107</v>
+        <v>642</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>107</v>
+        <v>663</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>107</v>
+        <v>682</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>107</v>
+        <v>701</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>107</v>
+        <v>720</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>107</v>
+        <v>741</v>
       </c>
     </row>
     <row r="42">
